--- a/Code/Results/Cases/Case_4_73/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_73/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.014045590339438</v>
+        <v>1.047621086334526</v>
       </c>
       <c r="D2">
-        <v>1.032814164497089</v>
+        <v>1.052021915148968</v>
       </c>
       <c r="E2">
-        <v>1.031742426241109</v>
+        <v>1.060395046940329</v>
       </c>
       <c r="F2">
-        <v>1.038443116586099</v>
+        <v>1.066004923385548</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.053172689423338</v>
+        <v>1.040352457862874</v>
       </c>
       <c r="J2">
-        <v>1.03581416511447</v>
+        <v>1.052669180581595</v>
       </c>
       <c r="K2">
-        <v>1.04383451836984</v>
+        <v>1.054771799637858</v>
       </c>
       <c r="L2">
-        <v>1.042776565736949</v>
+        <v>1.06312194377474</v>
       </c>
       <c r="M2">
-        <v>1.049391649342793</v>
+        <v>1.068716637445639</v>
       </c>
       <c r="N2">
-        <v>1.037285140038478</v>
+        <v>1.054164091560863</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.019245361104308</v>
+        <v>1.048713905276257</v>
       </c>
       <c r="D3">
-        <v>1.03677897585787</v>
+        <v>1.05286247078866</v>
       </c>
       <c r="E3">
-        <v>1.036468296796428</v>
+        <v>1.061440337667215</v>
       </c>
       <c r="F3">
-        <v>1.043190013768125</v>
+        <v>1.067050173802101</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.054697308563005</v>
+        <v>1.040576026042302</v>
       </c>
       <c r="J3">
-        <v>1.03922478167452</v>
+        <v>1.053409842141715</v>
       </c>
       <c r="K3">
-        <v>1.046961934329113</v>
+        <v>1.055425046595825</v>
       </c>
       <c r="L3">
-        <v>1.046654890324663</v>
+        <v>1.063981068508169</v>
       </c>
       <c r="M3">
-        <v>1.05329855780009</v>
+        <v>1.069576822861148</v>
       </c>
       <c r="N3">
-        <v>1.040700600065246</v>
+        <v>1.054905804945354</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.022535040839311</v>
+        <v>1.049421146560831</v>
       </c>
       <c r="D4">
-        <v>1.039287849547742</v>
+        <v>1.053406098067983</v>
       </c>
       <c r="E4">
-        <v>1.039463287659688</v>
+        <v>1.062117118448942</v>
       </c>
       <c r="F4">
-        <v>1.046197650992077</v>
+        <v>1.067726818904605</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.055646855369549</v>
+        <v>1.040718845199083</v>
       </c>
       <c r="J4">
-        <v>1.041379350997903</v>
+        <v>1.053888639362997</v>
       </c>
       <c r="K4">
-        <v>1.048934146248625</v>
+        <v>1.055846827075686</v>
       </c>
       <c r="L4">
-        <v>1.049107659600529</v>
+        <v>1.06453678165307</v>
       </c>
       <c r="M4">
-        <v>1.05576873755466</v>
+        <v>1.070133111580824</v>
       </c>
       <c r="N4">
-        <v>1.042858229124201</v>
+        <v>1.055385282113609</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.023900800527121</v>
+        <v>1.049718498409071</v>
       </c>
       <c r="D5">
-        <v>1.040329499576466</v>
+        <v>1.053634574140532</v>
       </c>
       <c r="E5">
-        <v>1.040707887870469</v>
+        <v>1.062401734420752</v>
       </c>
       <c r="F5">
-        <v>1.047447338071817</v>
+        <v>1.068011351536451</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.056037414477275</v>
+        <v>1.040778444477682</v>
       </c>
       <c r="J5">
-        <v>1.042273047253789</v>
+        <v>1.054089815299003</v>
       </c>
       <c r="K5">
-        <v>1.049751354654901</v>
+        <v>1.056023924397159</v>
       </c>
       <c r="L5">
-        <v>1.050125705599334</v>
+        <v>1.064770355794876</v>
       </c>
       <c r="M5">
-        <v>1.056793844204045</v>
+        <v>1.070366901114289</v>
       </c>
       <c r="N5">
-        <v>1.043753194531279</v>
+        <v>1.055586743742519</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.024129127713639</v>
+        <v>1.049768426718858</v>
       </c>
       <c r="D6">
-        <v>1.04050364349304</v>
+        <v>1.053672932459673</v>
       </c>
       <c r="E6">
-        <v>1.040916028048276</v>
+        <v>1.062449528393769</v>
       </c>
       <c r="F6">
-        <v>1.04765631889041</v>
+        <v>1.068059129972207</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.056102491240862</v>
+        <v>1.040788425535896</v>
       </c>
       <c r="J6">
-        <v>1.042422406544253</v>
+        <v>1.054123587142864</v>
       </c>
       <c r="K6">
-        <v>1.049887880495167</v>
+        <v>1.056053646951946</v>
       </c>
       <c r="L6">
-        <v>1.050295885704207</v>
+        <v>1.064809571118357</v>
       </c>
       <c r="M6">
-        <v>1.05696519468306</v>
+        <v>1.070406151042429</v>
       </c>
       <c r="N6">
-        <v>1.043902765929067</v>
+        <v>1.055620563546273</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.022553356940727</v>
+        <v>1.04942511968199</v>
       </c>
       <c r="D7">
-        <v>1.039301818912923</v>
+        <v>1.053409151231943</v>
       </c>
       <c r="E7">
-        <v>1.039479974275772</v>
+        <v>1.062120921119418</v>
       </c>
       <c r="F7">
-        <v>1.04621440648149</v>
+        <v>1.067730620564913</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.055652107663813</v>
+        <v>1.040719643304343</v>
       </c>
       <c r="J7">
-        <v>1.041391339527437</v>
+        <v>1.053891327919833</v>
       </c>
       <c r="K7">
-        <v>1.048945112104498</v>
+        <v>1.055849194320534</v>
       </c>
       <c r="L7">
-        <v>1.04912131361678</v>
+        <v>1.06453990286981</v>
       </c>
       <c r="M7">
-        <v>1.055782486930773</v>
+        <v>1.070136235780162</v>
       </c>
       <c r="N7">
-        <v>1.042870234678822</v>
+        <v>1.055387974488505</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.015818833041603</v>
+        <v>1.047990386076797</v>
       </c>
       <c r="D8">
-        <v>1.034166110331195</v>
+        <v>1.052306040099171</v>
       </c>
       <c r="E8">
-        <v>1.033352952676367</v>
+        <v>1.06074822322586</v>
       </c>
       <c r="F8">
-        <v>1.040060947671253</v>
+        <v>1.066358108702876</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053695738168286</v>
+        <v>1.040428395468697</v>
       </c>
       <c r="J8">
-        <v>1.036977908320875</v>
+        <v>1.052919585813474</v>
       </c>
       <c r="K8">
-        <v>1.044902344021814</v>
+        <v>1.05499275652369</v>
       </c>
       <c r="L8">
-        <v>1.044099322428014</v>
+        <v>1.063412329843366</v>
       </c>
       <c r="M8">
-        <v>1.050724291443788</v>
+        <v>1.069007404871271</v>
       </c>
       <c r="N8">
-        <v>1.038450535893719</v>
+        <v>1.054414852396893</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.003343628248184</v>
+        <v>1.045463066837111</v>
       </c>
       <c r="D9">
-        <v>1.02465986566969</v>
+        <v>1.050360186197967</v>
       </c>
       <c r="E9">
-        <v>1.022046344570941</v>
+        <v>1.058332489588247</v>
       </c>
       <c r="F9">
-        <v>1.028700410717675</v>
+        <v>1.063941866257704</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049954357757861</v>
+        <v>1.039901068257001</v>
       </c>
       <c r="J9">
-        <v>1.028778864382027</v>
+        <v>1.051203735174068</v>
       </c>
       <c r="K9">
-        <v>1.037365133772869</v>
+        <v>1.053476619964723</v>
       </c>
       <c r="L9">
-        <v>1.034791582371738</v>
+        <v>1.061423896531759</v>
       </c>
       <c r="M9">
-        <v>1.041344394124333</v>
+        <v>1.067015909558175</v>
       </c>
       <c r="N9">
-        <v>1.030239848372035</v>
+        <v>1.052696565052769</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9945662483486362</v>
+        <v>1.043778749891438</v>
       </c>
       <c r="D10">
-        <v>1.017981215106865</v>
+        <v>1.049061615324242</v>
       </c>
       <c r="E10">
-        <v>1.014123934065672</v>
+        <v>1.056724122076982</v>
       </c>
       <c r="F10">
-        <v>1.020737123559465</v>
+        <v>1.062332600736602</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.047246215501568</v>
+        <v>1.039540047443261</v>
       </c>
       <c r="J10">
-        <v>1.022997124290217</v>
+        <v>1.050057479382208</v>
       </c>
       <c r="K10">
-        <v>1.032033229286637</v>
+        <v>1.052461186332669</v>
       </c>
       <c r="L10">
-        <v>1.028242774680993</v>
+        <v>1.060097273985101</v>
       </c>
       <c r="M10">
-        <v>1.034741792025256</v>
+        <v>1.065686681019354</v>
       </c>
       <c r="N10">
-        <v>1.02444989754612</v>
+        <v>1.051548681446207</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.990643555488722</v>
+        <v>1.043049550283973</v>
       </c>
       <c r="D11">
-        <v>1.014999962405988</v>
+        <v>1.048499008813488</v>
       </c>
       <c r="E11">
-        <v>1.010591945179661</v>
+        <v>1.056028186253334</v>
       </c>
       <c r="F11">
-        <v>1.017186272793466</v>
+        <v>1.06163614429564</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046018834699649</v>
+        <v>1.039381478839742</v>
       </c>
       <c r="J11">
-        <v>1.02041082106021</v>
+        <v>1.049560580415565</v>
       </c>
       <c r="K11">
-        <v>1.02964443899863</v>
+        <v>1.052020386633369</v>
       </c>
       <c r="L11">
-        <v>1.025316839612141</v>
+        <v>1.05952259612209</v>
       </c>
       <c r="M11">
-        <v>1.031791199478301</v>
+        <v>1.065110741593259</v>
       </c>
       <c r="N11">
-        <v>1.021859921468872</v>
+        <v>1.051051076826036</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9891669676147526</v>
+        <v>1.042778710657393</v>
       </c>
       <c r="D12">
-        <v>1.013878385326713</v>
+        <v>1.04828998447464</v>
       </c>
       <c r="E12">
-        <v>1.009263797079175</v>
+        <v>1.055769759546719</v>
       </c>
       <c r="F12">
-        <v>1.015850944783369</v>
+        <v>1.061377504472053</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045554334278018</v>
+        <v>1.03932224243523</v>
       </c>
       <c r="J12">
-        <v>1.019436983815757</v>
+        <v>1.049375925471467</v>
       </c>
       <c r="K12">
-        <v>1.028744441475175</v>
+        <v>1.051856487368658</v>
       </c>
       <c r="L12">
-        <v>1.024215643699929</v>
+        <v>1.059309098909409</v>
       </c>
       <c r="M12">
-        <v>1.030680638590442</v>
+        <v>1.064896755837646</v>
       </c>
       <c r="N12">
-        <v>1.020884701263832</v>
+        <v>1.050866159650737</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.989484604508018</v>
+        <v>1.042836805890452</v>
       </c>
       <c r="D13">
-        <v>1.014119623579633</v>
+        <v>1.048334823036478</v>
       </c>
       <c r="E13">
-        <v>1.009549439103513</v>
+        <v>1.055825189565085</v>
       </c>
       <c r="F13">
-        <v>1.016138134769585</v>
+        <v>1.061432981096881</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045654366528473</v>
+        <v>1.039334964090246</v>
       </c>
       <c r="J13">
-        <v>1.019646483577848</v>
+        <v>1.049415538409805</v>
       </c>
       <c r="K13">
-        <v>1.028938079794567</v>
+        <v>1.051891651854969</v>
       </c>
       <c r="L13">
-        <v>1.024452518169943</v>
+        <v>1.059354896427085</v>
       </c>
       <c r="M13">
-        <v>1.030919531222672</v>
+        <v>1.064942659050874</v>
       </c>
       <c r="N13">
-        <v>1.021094498539614</v>
+        <v>1.050905828843991</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9905219058244995</v>
+        <v>1.043027162240692</v>
       </c>
       <c r="D14">
-        <v>1.014907547064437</v>
+        <v>1.048481731757876</v>
       </c>
       <c r="E14">
-        <v>1.010482496528925</v>
+        <v>1.05600682309413</v>
       </c>
       <c r="F14">
-        <v>1.017076234188141</v>
+        <v>1.06161476392239</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045980616580586</v>
+        <v>1.039376589212891</v>
       </c>
       <c r="J14">
-        <v>1.020330596469468</v>
+        <v>1.049545318505025</v>
       </c>
       <c r="K14">
-        <v>1.029570307948353</v>
+        <v>1.052006842067247</v>
       </c>
       <c r="L14">
-        <v>1.025226112562948</v>
+        <v>1.059504949115601</v>
       </c>
       <c r="M14">
-        <v>1.03169970252767</v>
+        <v>1.065093054610116</v>
       </c>
       <c r="N14">
-        <v>1.02177958295001</v>
+        <v>1.051035793241833</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9911583968081403</v>
+        <v>1.043144449382601</v>
       </c>
       <c r="D15">
-        <v>1.015391105673428</v>
+        <v>1.048572240821807</v>
       </c>
       <c r="E15">
-        <v>1.011055206092174</v>
+        <v>1.056118743424775</v>
       </c>
       <c r="F15">
-        <v>1.017652027293522</v>
+        <v>1.061726773626044</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046180479213067</v>
+        <v>1.03940219117962</v>
       </c>
       <c r="J15">
-        <v>1.020750333014139</v>
+        <v>1.049625269101722</v>
       </c>
       <c r="K15">
-        <v>1.029958141503913</v>
+        <v>1.052077792483747</v>
       </c>
       <c r="L15">
-        <v>1.025700819551652</v>
+        <v>1.059597396724278</v>
       </c>
       <c r="M15">
-        <v>1.032178434427721</v>
+        <v>1.065185710832076</v>
       </c>
       <c r="N15">
-        <v>1.022199915568719</v>
+        <v>1.051115857377548</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9948239140682905</v>
+        <v>1.043827146963547</v>
       </c>
       <c r="D16">
-        <v>1.018177123059369</v>
+        <v>1.049098947022523</v>
       </c>
       <c r="E16">
-        <v>1.014356121495263</v>
+        <v>1.056770319539533</v>
       </c>
       <c r="F16">
-        <v>1.020970538369965</v>
+        <v>1.062378829979713</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.047326488325304</v>
+        <v>1.03955052385368</v>
       </c>
       <c r="J16">
-        <v>1.023166963547166</v>
+        <v>1.05009044507486</v>
       </c>
       <c r="K16">
-        <v>1.032190023164159</v>
+        <v>1.052490417380254</v>
       </c>
       <c r="L16">
-        <v>1.028434989804375</v>
+        <v>1.060135408375137</v>
       </c>
       <c r="M16">
-        <v>1.034935614743248</v>
+        <v>1.06572489633516</v>
       </c>
       <c r="N16">
-        <v>1.024619977994294</v>
+        <v>1.051581693953924</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9970897148383661</v>
+        <v>1.0442554170478</v>
       </c>
       <c r="D17">
-        <v>1.019900262474746</v>
+        <v>1.049429251357791</v>
       </c>
       <c r="E17">
-        <v>1.016398864157736</v>
+        <v>1.057179169357776</v>
       </c>
       <c r="F17">
-        <v>1.023024007708543</v>
+        <v>1.062787945802924</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048030440908361</v>
+        <v>1.039642968326778</v>
       </c>
       <c r="J17">
-        <v>1.024660192240162</v>
+        <v>1.050382087029496</v>
       </c>
       <c r="K17">
-        <v>1.033568138646827</v>
+        <v>1.052748948956949</v>
       </c>
       <c r="L17">
-        <v>1.030125344189113</v>
+        <v>1.060472824218305</v>
       </c>
       <c r="M17">
-        <v>1.036640036672454</v>
+        <v>1.066063012900573</v>
       </c>
       <c r="N17">
-        <v>1.02611532724331</v>
+        <v>1.051873750073587</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9983996295810129</v>
+        <v>1.044505231430306</v>
       </c>
       <c r="D18">
-        <v>1.020896775358224</v>
+        <v>1.049621881702513</v>
       </c>
       <c r="E18">
-        <v>1.017580633464571</v>
+        <v>1.057417692579549</v>
       </c>
       <c r="F18">
-        <v>1.024211921516115</v>
+        <v>1.063026611462649</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.048435789921072</v>
+        <v>1.039696673076955</v>
       </c>
       <c r="J18">
-        <v>1.02552323361824</v>
+        <v>1.050552142561422</v>
       </c>
       <c r="K18">
-        <v>1.034364295326718</v>
+        <v>1.052899638918816</v>
       </c>
       <c r="L18">
-        <v>1.031102648995032</v>
+        <v>1.060669609864009</v>
       </c>
       <c r="M18">
-        <v>1.037625415291081</v>
+        <v>1.066260194414399</v>
       </c>
       <c r="N18">
-        <v>1.026979594239136</v>
+        <v>1.052044047103874</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9988443286670791</v>
+        <v>1.044590413678643</v>
       </c>
       <c r="D19">
-        <v>1.02123513045836</v>
+        <v>1.049687558473196</v>
       </c>
       <c r="E19">
-        <v>1.017981964020152</v>
+        <v>1.057499030981394</v>
       </c>
       <c r="F19">
-        <v>1.024615328138767</v>
+        <v>1.063107996273056</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04857312301977</v>
+        <v>1.039714948272586</v>
       </c>
       <c r="J19">
-        <v>1.025816184053414</v>
+        <v>1.050610117895659</v>
       </c>
       <c r="K19">
-        <v>1.034634481857954</v>
+        <v>1.052951002124788</v>
       </c>
       <c r="L19">
-        <v>1.031434441064646</v>
+        <v>1.060736704729781</v>
       </c>
       <c r="M19">
-        <v>1.037959938045738</v>
+        <v>1.066327422079264</v>
       </c>
       <c r="N19">
-        <v>1.027272960697531</v>
+        <v>1.052102104769736</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9968478331525646</v>
+        <v>1.044209466515825</v>
       </c>
       <c r="D20">
-        <v>1.019716277319219</v>
+        <v>1.049393815989508</v>
       </c>
       <c r="E20">
-        <v>1.016180710071558</v>
+        <v>1.057135298672184</v>
       </c>
       <c r="F20">
-        <v>1.022804714350788</v>
+        <v>1.062744047892583</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047955459567217</v>
+        <v>1.039633072306641</v>
       </c>
       <c r="J20">
-        <v>1.024500808660316</v>
+        <v>1.050350802222866</v>
       </c>
       <c r="K20">
-        <v>1.033421078400037</v>
+        <v>1.052721222045393</v>
       </c>
       <c r="L20">
-        <v>1.029944885569976</v>
+        <v>1.060436625102066</v>
       </c>
       <c r="M20">
-        <v>1.036458082354192</v>
+        <v>1.066026739932288</v>
       </c>
       <c r="N20">
-        <v>1.025955717320499</v>
+        <v>1.051842420838944</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9902169955005288</v>
+        <v>1.042971106559434</v>
       </c>
       <c r="D21">
-        <v>1.014675922025026</v>
+        <v>1.048438472101982</v>
       </c>
       <c r="E21">
-        <v>1.01020818992105</v>
+        <v>1.055953334480554</v>
       </c>
       <c r="F21">
-        <v>1.016800447627696</v>
+        <v>1.061561231889065</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045884784525961</v>
+        <v>1.039364340952027</v>
       </c>
       <c r="J21">
-        <v>1.020129511998119</v>
+        <v>1.049507103835595</v>
       </c>
       <c r="K21">
-        <v>1.029384488592557</v>
+        <v>1.051972926019223</v>
       </c>
       <c r="L21">
-        <v>1.024998711933593</v>
+        <v>1.059460763339774</v>
       </c>
       <c r="M21">
-        <v>1.031470370859371</v>
+        <v>1.065048768417413</v>
       </c>
       <c r="N21">
-        <v>1.021578212915647</v>
+        <v>1.050997524303189</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9859342934558852</v>
+        <v>1.042192601909103</v>
       </c>
       <c r="D22">
-        <v>1.011424217950725</v>
+        <v>1.047837536393033</v>
       </c>
       <c r="E22">
-        <v>1.006358710763641</v>
+        <v>1.055210619726588</v>
       </c>
       <c r="F22">
-        <v>1.012930003421198</v>
+        <v>1.060817867407421</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044532924567788</v>
+        <v>1.039193429405899</v>
       </c>
       <c r="J22">
-        <v>1.017304503782068</v>
+        <v>1.048976148022492</v>
       </c>
       <c r="K22">
-        <v>1.026772705957148</v>
+        <v>1.051501478620277</v>
       </c>
       <c r="L22">
-        <v>1.021805244117341</v>
+        <v>1.058846990498162</v>
       </c>
       <c r="M22">
-        <v>1.028249593695445</v>
+        <v>1.064433553741375</v>
       </c>
       <c r="N22">
-        <v>1.018749192863897</v>
+        <v>1.05046581447193</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9882158303849006</v>
+        <v>1.042605292531119</v>
       </c>
       <c r="D23">
-        <v>1.01315611863921</v>
+        <v>1.048156129550273</v>
       </c>
       <c r="E23">
-        <v>1.008408672808573</v>
+        <v>1.055604305811003</v>
       </c>
       <c r="F23">
-        <v>1.014991174313564</v>
+        <v>1.061211908725625</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045254437891881</v>
+        <v>1.039284217571723</v>
       </c>
       <c r="J23">
-        <v>1.018809615945464</v>
+        <v>1.04925766411591</v>
       </c>
       <c r="K23">
-        <v>1.028164496512503</v>
+        <v>1.051751493125771</v>
       </c>
       <c r="L23">
-        <v>1.023506376519659</v>
+        <v>1.059172382976334</v>
       </c>
       <c r="M23">
-        <v>1.029965316716742</v>
+        <v>1.064759721476411</v>
       </c>
       <c r="N23">
-        <v>1.020256442459203</v>
+        <v>1.050747730350491</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9969571651080331</v>
+        <v>1.044230229546931</v>
       </c>
       <c r="D24">
-        <v>1.019799438703118</v>
+        <v>1.04940982780156</v>
       </c>
       <c r="E24">
-        <v>1.016279314504918</v>
+        <v>1.057155121798031</v>
       </c>
       <c r="F24">
-        <v>1.022903833918699</v>
+        <v>1.062763883359426</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047989356618598</v>
+        <v>1.039637544561217</v>
       </c>
       <c r="J24">
-        <v>1.024572851702961</v>
+        <v>1.050364938647945</v>
       </c>
       <c r="K24">
-        <v>1.033487552263607</v>
+        <v>1.052733750974155</v>
       </c>
       <c r="L24">
-        <v>1.030026453724595</v>
+        <v>1.060452981996399</v>
       </c>
       <c r="M24">
-        <v>1.036540326757314</v>
+        <v>1.066043130236897</v>
       </c>
       <c r="N24">
-        <v>1.026027862672528</v>
+        <v>1.051856577339367</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.006645916577354</v>
+        <v>1.046116338901742</v>
       </c>
       <c r="D25">
-        <v>1.027174924630018</v>
+        <v>1.050863473586564</v>
       </c>
       <c r="E25">
-        <v>1.025033925068655</v>
+        <v>1.058956641666746</v>
       </c>
       <c r="F25">
-        <v>1.031702802467263</v>
+        <v>1.064566248636024</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.050958030127367</v>
+        <v>1.040039065340935</v>
       </c>
       <c r="J25">
-        <v>1.03095167060266</v>
+        <v>1.051647739500347</v>
       </c>
       <c r="K25">
-        <v>1.039365538738418</v>
+        <v>1.053869403180086</v>
       </c>
       <c r="L25">
-        <v>1.03725566503997</v>
+        <v>1.061938131378479</v>
       </c>
       <c r="M25">
-        <v>1.04382812904099</v>
+        <v>1.06753103580453</v>
       </c>
       <c r="N25">
-        <v>1.032415740226726</v>
+        <v>1.053141199916119</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_73/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_73/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.047621086334526</v>
+        <v>1.014045590339437</v>
       </c>
       <c r="D2">
-        <v>1.052021915148968</v>
+        <v>1.032814164497088</v>
       </c>
       <c r="E2">
-        <v>1.060395046940329</v>
+        <v>1.031742426241108</v>
       </c>
       <c r="F2">
-        <v>1.066004923385548</v>
+        <v>1.038443116586098</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040352457862874</v>
+        <v>1.053172689423338</v>
       </c>
       <c r="J2">
-        <v>1.052669180581595</v>
+        <v>1.035814165114469</v>
       </c>
       <c r="K2">
-        <v>1.054771799637858</v>
+        <v>1.043834518369839</v>
       </c>
       <c r="L2">
-        <v>1.06312194377474</v>
+        <v>1.042776565736948</v>
       </c>
       <c r="M2">
-        <v>1.068716637445639</v>
+        <v>1.049391649342792</v>
       </c>
       <c r="N2">
-        <v>1.054164091560863</v>
+        <v>1.037285140038477</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.048713905276257</v>
+        <v>1.019245361104308</v>
       </c>
       <c r="D3">
-        <v>1.05286247078866</v>
+        <v>1.036778975857871</v>
       </c>
       <c r="E3">
-        <v>1.061440337667215</v>
+        <v>1.036468296796429</v>
       </c>
       <c r="F3">
-        <v>1.067050173802101</v>
+        <v>1.043190013768126</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040576026042302</v>
+        <v>1.054697308563006</v>
       </c>
       <c r="J3">
-        <v>1.053409842141715</v>
+        <v>1.039224781674521</v>
       </c>
       <c r="K3">
-        <v>1.055425046595825</v>
+        <v>1.046961934329114</v>
       </c>
       <c r="L3">
-        <v>1.063981068508169</v>
+        <v>1.046654890324664</v>
       </c>
       <c r="M3">
-        <v>1.069576822861148</v>
+        <v>1.053298557800091</v>
       </c>
       <c r="N3">
-        <v>1.054905804945354</v>
+        <v>1.040700600065247</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.049421146560831</v>
+        <v>1.022535040839311</v>
       </c>
       <c r="D4">
-        <v>1.053406098067983</v>
+        <v>1.039287849547742</v>
       </c>
       <c r="E4">
-        <v>1.062117118448942</v>
+        <v>1.039463287659688</v>
       </c>
       <c r="F4">
-        <v>1.067726818904605</v>
+        <v>1.046197650992077</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040718845199083</v>
+        <v>1.055646855369549</v>
       </c>
       <c r="J4">
-        <v>1.053888639362997</v>
+        <v>1.041379350997903</v>
       </c>
       <c r="K4">
-        <v>1.055846827075686</v>
+        <v>1.048934146248626</v>
       </c>
       <c r="L4">
-        <v>1.06453678165307</v>
+        <v>1.049107659600529</v>
       </c>
       <c r="M4">
-        <v>1.070133111580824</v>
+        <v>1.05576873755466</v>
       </c>
       <c r="N4">
-        <v>1.055385282113609</v>
+        <v>1.042858229124201</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.049718498409071</v>
+        <v>1.023900800527121</v>
       </c>
       <c r="D5">
-        <v>1.053634574140532</v>
+        <v>1.040329499576466</v>
       </c>
       <c r="E5">
-        <v>1.062401734420752</v>
+        <v>1.04070788787047</v>
       </c>
       <c r="F5">
-        <v>1.068011351536451</v>
+        <v>1.047447338071818</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040778444477682</v>
+        <v>1.056037414477276</v>
       </c>
       <c r="J5">
-        <v>1.054089815299003</v>
+        <v>1.042273047253789</v>
       </c>
       <c r="K5">
-        <v>1.056023924397159</v>
+        <v>1.049751354654902</v>
       </c>
       <c r="L5">
-        <v>1.064770355794876</v>
+        <v>1.050125705599334</v>
       </c>
       <c r="M5">
-        <v>1.070366901114289</v>
+        <v>1.056793844204046</v>
       </c>
       <c r="N5">
-        <v>1.055586743742519</v>
+        <v>1.043753194531279</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.049768426718858</v>
+        <v>1.024129127713639</v>
       </c>
       <c r="D6">
-        <v>1.053672932459673</v>
+        <v>1.04050364349304</v>
       </c>
       <c r="E6">
-        <v>1.062449528393769</v>
+        <v>1.040916028048276</v>
       </c>
       <c r="F6">
-        <v>1.068059129972207</v>
+        <v>1.04765631889041</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040788425535896</v>
+        <v>1.056102491240862</v>
       </c>
       <c r="J6">
-        <v>1.054123587142864</v>
+        <v>1.042422406544253</v>
       </c>
       <c r="K6">
-        <v>1.056053646951946</v>
+        <v>1.049887880495167</v>
       </c>
       <c r="L6">
-        <v>1.064809571118357</v>
+        <v>1.050295885704206</v>
       </c>
       <c r="M6">
-        <v>1.070406151042429</v>
+        <v>1.056965194683061</v>
       </c>
       <c r="N6">
-        <v>1.055620563546273</v>
+        <v>1.043902765929067</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.04942511968199</v>
+        <v>1.022553356940727</v>
       </c>
       <c r="D7">
-        <v>1.053409151231943</v>
+        <v>1.039301818912923</v>
       </c>
       <c r="E7">
-        <v>1.062120921119418</v>
+        <v>1.039479974275772</v>
       </c>
       <c r="F7">
-        <v>1.067730620564913</v>
+        <v>1.04621440648149</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040719643304343</v>
+        <v>1.055652107663813</v>
       </c>
       <c r="J7">
-        <v>1.053891327919833</v>
+        <v>1.041391339527437</v>
       </c>
       <c r="K7">
-        <v>1.055849194320534</v>
+        <v>1.048945112104498</v>
       </c>
       <c r="L7">
-        <v>1.06453990286981</v>
+        <v>1.04912131361678</v>
       </c>
       <c r="M7">
-        <v>1.070136235780162</v>
+        <v>1.055782486930773</v>
       </c>
       <c r="N7">
-        <v>1.055387974488505</v>
+        <v>1.042870234678822</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.047990386076797</v>
+        <v>1.015818833041603</v>
       </c>
       <c r="D8">
-        <v>1.052306040099171</v>
+        <v>1.034166110331196</v>
       </c>
       <c r="E8">
-        <v>1.06074822322586</v>
+        <v>1.033352952676368</v>
       </c>
       <c r="F8">
-        <v>1.066358108702876</v>
+        <v>1.040060947671254</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040428395468697</v>
+        <v>1.053695738168287</v>
       </c>
       <c r="J8">
-        <v>1.052919585813474</v>
+        <v>1.036977908320876</v>
       </c>
       <c r="K8">
-        <v>1.05499275652369</v>
+        <v>1.044902344021815</v>
       </c>
       <c r="L8">
-        <v>1.063412329843366</v>
+        <v>1.044099322428015</v>
       </c>
       <c r="M8">
-        <v>1.069007404871271</v>
+        <v>1.05072429144379</v>
       </c>
       <c r="N8">
-        <v>1.054414852396893</v>
+        <v>1.03845053589372</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.045463066837111</v>
+        <v>1.003343628248183</v>
       </c>
       <c r="D9">
-        <v>1.050360186197967</v>
+        <v>1.024659865669689</v>
       </c>
       <c r="E9">
-        <v>1.058332489588247</v>
+        <v>1.022046344570941</v>
       </c>
       <c r="F9">
-        <v>1.063941866257704</v>
+        <v>1.028700410717674</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039901068257001</v>
+        <v>1.04995435775786</v>
       </c>
       <c r="J9">
-        <v>1.051203735174068</v>
+        <v>1.028778864382026</v>
       </c>
       <c r="K9">
-        <v>1.053476619964723</v>
+        <v>1.037365133772868</v>
       </c>
       <c r="L9">
-        <v>1.061423896531759</v>
+        <v>1.034791582371738</v>
       </c>
       <c r="M9">
-        <v>1.067015909558175</v>
+        <v>1.041344394124333</v>
       </c>
       <c r="N9">
-        <v>1.052696565052769</v>
+        <v>1.030239848372034</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.043778749891438</v>
+        <v>0.9945662483486363</v>
       </c>
       <c r="D10">
-        <v>1.049061615324242</v>
+        <v>1.017981215106865</v>
       </c>
       <c r="E10">
-        <v>1.056724122076982</v>
+        <v>1.014123934065672</v>
       </c>
       <c r="F10">
-        <v>1.062332600736602</v>
+        <v>1.020737123559464</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039540047443261</v>
+        <v>1.047246215501568</v>
       </c>
       <c r="J10">
-        <v>1.050057479382208</v>
+        <v>1.022997124290217</v>
       </c>
       <c r="K10">
-        <v>1.052461186332669</v>
+        <v>1.032033229286637</v>
       </c>
       <c r="L10">
-        <v>1.060097273985101</v>
+        <v>1.028242774680993</v>
       </c>
       <c r="M10">
-        <v>1.065686681019354</v>
+        <v>1.034741792025256</v>
       </c>
       <c r="N10">
-        <v>1.051548681446207</v>
+        <v>1.02444989754612</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.043049550283973</v>
+        <v>0.9906435554887217</v>
       </c>
       <c r="D11">
-        <v>1.048499008813488</v>
+        <v>1.014999962405988</v>
       </c>
       <c r="E11">
-        <v>1.056028186253334</v>
+        <v>1.01059194517966</v>
       </c>
       <c r="F11">
-        <v>1.06163614429564</v>
+        <v>1.017186272793465</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039381478839742</v>
+        <v>1.046018834699649</v>
       </c>
       <c r="J11">
-        <v>1.049560580415565</v>
+        <v>1.020410821060209</v>
       </c>
       <c r="K11">
-        <v>1.052020386633369</v>
+        <v>1.02964443899863</v>
       </c>
       <c r="L11">
-        <v>1.05952259612209</v>
+        <v>1.025316839612141</v>
       </c>
       <c r="M11">
-        <v>1.065110741593259</v>
+        <v>1.031791199478301</v>
       </c>
       <c r="N11">
-        <v>1.051051076826036</v>
+        <v>1.021859921468872</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.042778710657393</v>
+        <v>0.9891669676147523</v>
       </c>
       <c r="D12">
-        <v>1.04828998447464</v>
+        <v>1.013878385326712</v>
       </c>
       <c r="E12">
-        <v>1.055769759546719</v>
+        <v>1.009263797079174</v>
       </c>
       <c r="F12">
-        <v>1.061377504472053</v>
+        <v>1.015850944783368</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03932224243523</v>
+        <v>1.045554334278018</v>
       </c>
       <c r="J12">
-        <v>1.049375925471467</v>
+        <v>1.019436983815757</v>
       </c>
       <c r="K12">
-        <v>1.051856487368658</v>
+        <v>1.028744441475175</v>
       </c>
       <c r="L12">
-        <v>1.059309098909409</v>
+        <v>1.024215643699929</v>
       </c>
       <c r="M12">
-        <v>1.064896755837646</v>
+        <v>1.030680638590442</v>
       </c>
       <c r="N12">
-        <v>1.050866159650737</v>
+        <v>1.020884701263832</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.042836805890452</v>
+        <v>0.9894846045080178</v>
       </c>
       <c r="D13">
-        <v>1.048334823036478</v>
+        <v>1.014119623579632</v>
       </c>
       <c r="E13">
-        <v>1.055825189565085</v>
+        <v>1.009549439103513</v>
       </c>
       <c r="F13">
-        <v>1.061432981096881</v>
+        <v>1.016138134769585</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039334964090246</v>
+        <v>1.045654366528473</v>
       </c>
       <c r="J13">
-        <v>1.049415538409805</v>
+        <v>1.019646483577848</v>
       </c>
       <c r="K13">
-        <v>1.051891651854969</v>
+        <v>1.028938079794568</v>
       </c>
       <c r="L13">
-        <v>1.059354896427085</v>
+        <v>1.024452518169943</v>
       </c>
       <c r="M13">
-        <v>1.064942659050874</v>
+        <v>1.030919531222672</v>
       </c>
       <c r="N13">
-        <v>1.050905828843991</v>
+        <v>1.021094498539615</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.043027162240692</v>
+        <v>0.9905219058244987</v>
       </c>
       <c r="D14">
-        <v>1.048481731757876</v>
+        <v>1.014907547064436</v>
       </c>
       <c r="E14">
-        <v>1.05600682309413</v>
+        <v>1.010482496528924</v>
       </c>
       <c r="F14">
-        <v>1.06161476392239</v>
+        <v>1.01707623418814</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039376589212891</v>
+        <v>1.045980616580585</v>
       </c>
       <c r="J14">
-        <v>1.049545318505025</v>
+        <v>1.020330596469468</v>
       </c>
       <c r="K14">
-        <v>1.052006842067247</v>
+        <v>1.029570307948352</v>
       </c>
       <c r="L14">
-        <v>1.059504949115601</v>
+        <v>1.025226112562947</v>
       </c>
       <c r="M14">
-        <v>1.065093054610116</v>
+        <v>1.031699702527669</v>
       </c>
       <c r="N14">
-        <v>1.051035793241833</v>
+        <v>1.02177958295001</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.043144449382601</v>
+        <v>0.9911583968081425</v>
       </c>
       <c r="D15">
-        <v>1.048572240821807</v>
+        <v>1.01539110567343</v>
       </c>
       <c r="E15">
-        <v>1.056118743424775</v>
+        <v>1.011055206092176</v>
       </c>
       <c r="F15">
-        <v>1.061726773626044</v>
+        <v>1.017652027293524</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03940219117962</v>
+        <v>1.046180479213068</v>
       </c>
       <c r="J15">
-        <v>1.049625269101722</v>
+        <v>1.020750333014141</v>
       </c>
       <c r="K15">
-        <v>1.052077792483747</v>
+        <v>1.029958141503915</v>
       </c>
       <c r="L15">
-        <v>1.059597396724278</v>
+        <v>1.025700819551654</v>
       </c>
       <c r="M15">
-        <v>1.065185710832076</v>
+        <v>1.032178434427723</v>
       </c>
       <c r="N15">
-        <v>1.051115857377548</v>
+        <v>1.022199915568721</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.043827146963547</v>
+        <v>0.9948239140682906</v>
       </c>
       <c r="D16">
-        <v>1.049098947022523</v>
+        <v>1.018177123059369</v>
       </c>
       <c r="E16">
-        <v>1.056770319539533</v>
+        <v>1.014356121495263</v>
       </c>
       <c r="F16">
-        <v>1.062378829979713</v>
+        <v>1.020970538369966</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03955052385368</v>
+        <v>1.047326488325304</v>
       </c>
       <c r="J16">
-        <v>1.05009044507486</v>
+        <v>1.023166963547166</v>
       </c>
       <c r="K16">
-        <v>1.052490417380254</v>
+        <v>1.032190023164159</v>
       </c>
       <c r="L16">
-        <v>1.060135408375137</v>
+        <v>1.028434989804376</v>
       </c>
       <c r="M16">
-        <v>1.06572489633516</v>
+        <v>1.034935614743249</v>
       </c>
       <c r="N16">
-        <v>1.051581693953924</v>
+        <v>1.024619977994294</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.0442554170478</v>
+        <v>0.9970897148383662</v>
       </c>
       <c r="D17">
-        <v>1.049429251357791</v>
+        <v>1.019900262474746</v>
       </c>
       <c r="E17">
-        <v>1.057179169357776</v>
+        <v>1.016398864157736</v>
       </c>
       <c r="F17">
-        <v>1.062787945802924</v>
+        <v>1.023024007708543</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039642968326778</v>
+        <v>1.048030440908361</v>
       </c>
       <c r="J17">
-        <v>1.050382087029496</v>
+        <v>1.024660192240163</v>
       </c>
       <c r="K17">
-        <v>1.052748948956949</v>
+        <v>1.033568138646828</v>
       </c>
       <c r="L17">
-        <v>1.060472824218305</v>
+        <v>1.030125344189113</v>
       </c>
       <c r="M17">
-        <v>1.066063012900573</v>
+        <v>1.036640036672455</v>
       </c>
       <c r="N17">
-        <v>1.051873750073587</v>
+        <v>1.026115327243311</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.044505231430306</v>
+        <v>0.9983996295810136</v>
       </c>
       <c r="D18">
-        <v>1.049621881702513</v>
+        <v>1.020896775358225</v>
       </c>
       <c r="E18">
-        <v>1.057417692579549</v>
+        <v>1.017580633464571</v>
       </c>
       <c r="F18">
-        <v>1.063026611462649</v>
+        <v>1.024211921516116</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039696673076955</v>
+        <v>1.048435789921072</v>
       </c>
       <c r="J18">
-        <v>1.050552142561422</v>
+        <v>1.02552323361824</v>
       </c>
       <c r="K18">
-        <v>1.052899638918816</v>
+        <v>1.034364295326719</v>
       </c>
       <c r="L18">
-        <v>1.060669609864009</v>
+        <v>1.031102648995033</v>
       </c>
       <c r="M18">
-        <v>1.066260194414399</v>
+        <v>1.037625415291082</v>
       </c>
       <c r="N18">
-        <v>1.052044047103874</v>
+        <v>1.026979594239137</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.044590413678643</v>
+        <v>0.9988443286670811</v>
       </c>
       <c r="D19">
-        <v>1.049687558473196</v>
+        <v>1.021235130458362</v>
       </c>
       <c r="E19">
-        <v>1.057499030981394</v>
+        <v>1.017981964020154</v>
       </c>
       <c r="F19">
-        <v>1.063107996273056</v>
+        <v>1.024615328138769</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039714948272586</v>
+        <v>1.048573123019771</v>
       </c>
       <c r="J19">
-        <v>1.050610117895659</v>
+        <v>1.025816184053416</v>
       </c>
       <c r="K19">
-        <v>1.052951002124788</v>
+        <v>1.034634481857956</v>
       </c>
       <c r="L19">
-        <v>1.060736704729781</v>
+        <v>1.031434441064648</v>
       </c>
       <c r="M19">
-        <v>1.066327422079264</v>
+        <v>1.037959938045741</v>
       </c>
       <c r="N19">
-        <v>1.052102104769736</v>
+        <v>1.027272960697533</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.044209466515825</v>
+        <v>0.9968478331525651</v>
       </c>
       <c r="D20">
-        <v>1.049393815989508</v>
+        <v>1.019716277319219</v>
       </c>
       <c r="E20">
-        <v>1.057135298672184</v>
+        <v>1.016180710071558</v>
       </c>
       <c r="F20">
-        <v>1.062744047892583</v>
+        <v>1.022804714350788</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039633072306641</v>
+        <v>1.047955459567217</v>
       </c>
       <c r="J20">
-        <v>1.050350802222866</v>
+        <v>1.024500808660316</v>
       </c>
       <c r="K20">
-        <v>1.052721222045393</v>
+        <v>1.033421078400037</v>
       </c>
       <c r="L20">
-        <v>1.060436625102066</v>
+        <v>1.029944885569976</v>
       </c>
       <c r="M20">
-        <v>1.066026739932288</v>
+        <v>1.036458082354192</v>
       </c>
       <c r="N20">
-        <v>1.051842420838944</v>
+        <v>1.025955717320499</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.042971106559434</v>
+        <v>0.9902169955005303</v>
       </c>
       <c r="D21">
-        <v>1.048438472101982</v>
+        <v>1.014675922025027</v>
       </c>
       <c r="E21">
-        <v>1.055953334480554</v>
+        <v>1.010208189921052</v>
       </c>
       <c r="F21">
-        <v>1.061561231889065</v>
+        <v>1.016800447627697</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039364340952027</v>
+        <v>1.045884784525962</v>
       </c>
       <c r="J21">
-        <v>1.049507103835595</v>
+        <v>1.02012951199812</v>
       </c>
       <c r="K21">
-        <v>1.051972926019223</v>
+        <v>1.029384488592558</v>
       </c>
       <c r="L21">
-        <v>1.059460763339774</v>
+        <v>1.024998711933594</v>
       </c>
       <c r="M21">
-        <v>1.065048768417413</v>
+        <v>1.031470370859372</v>
       </c>
       <c r="N21">
-        <v>1.050997524303189</v>
+        <v>1.021578212915648</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.042192601909103</v>
+        <v>0.9859342934558865</v>
       </c>
       <c r="D22">
-        <v>1.047837536393033</v>
+        <v>1.011424217950727</v>
       </c>
       <c r="E22">
-        <v>1.055210619726588</v>
+        <v>1.006358710763643</v>
       </c>
       <c r="F22">
-        <v>1.060817867407421</v>
+        <v>1.0129300034212</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039193429405899</v>
+        <v>1.044532924567789</v>
       </c>
       <c r="J22">
-        <v>1.048976148022492</v>
+        <v>1.017304503782069</v>
       </c>
       <c r="K22">
-        <v>1.051501478620277</v>
+        <v>1.02677270595715</v>
       </c>
       <c r="L22">
-        <v>1.058846990498162</v>
+        <v>1.021805244117342</v>
       </c>
       <c r="M22">
-        <v>1.064433553741375</v>
+        <v>1.028249593695447</v>
       </c>
       <c r="N22">
-        <v>1.05046581447193</v>
+        <v>1.018749192863898</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.042605292531119</v>
+        <v>0.9882158303849007</v>
       </c>
       <c r="D23">
-        <v>1.048156129550273</v>
+        <v>1.01315611863921</v>
       </c>
       <c r="E23">
-        <v>1.055604305811003</v>
+        <v>1.008408672808573</v>
       </c>
       <c r="F23">
-        <v>1.061211908725625</v>
+        <v>1.014991174313564</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039284217571723</v>
+        <v>1.045254437891882</v>
       </c>
       <c r="J23">
-        <v>1.04925766411591</v>
+        <v>1.018809615945464</v>
       </c>
       <c r="K23">
-        <v>1.051751493125771</v>
+        <v>1.028164496512503</v>
       </c>
       <c r="L23">
-        <v>1.059172382976334</v>
+        <v>1.023506376519659</v>
       </c>
       <c r="M23">
-        <v>1.064759721476411</v>
+        <v>1.029965316716742</v>
       </c>
       <c r="N23">
-        <v>1.050747730350491</v>
+        <v>1.020256442459203</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.044230229546931</v>
+        <v>0.9969571651080327</v>
       </c>
       <c r="D24">
-        <v>1.04940982780156</v>
+        <v>1.019799438703117</v>
       </c>
       <c r="E24">
-        <v>1.057155121798031</v>
+        <v>1.016279314504918</v>
       </c>
       <c r="F24">
-        <v>1.062763883359426</v>
+        <v>1.022903833918699</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039637544561217</v>
+        <v>1.047989356618598</v>
       </c>
       <c r="J24">
-        <v>1.050364938647945</v>
+        <v>1.024572851702961</v>
       </c>
       <c r="K24">
-        <v>1.052733750974155</v>
+        <v>1.033487552263607</v>
       </c>
       <c r="L24">
-        <v>1.060452981996399</v>
+        <v>1.030026453724595</v>
       </c>
       <c r="M24">
-        <v>1.066043130236897</v>
+        <v>1.036540326757314</v>
       </c>
       <c r="N24">
-        <v>1.051856577339367</v>
+        <v>1.026027862672528</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C25">
-        <v>1.046116338901742</v>
+        <v>1.006645916577355</v>
       </c>
       <c r="D25">
-        <v>1.050863473586564</v>
+        <v>1.027174924630018</v>
       </c>
       <c r="E25">
-        <v>1.058956641666746</v>
+        <v>1.025033925068655</v>
       </c>
       <c r="F25">
-        <v>1.064566248636024</v>
+        <v>1.031702802467263</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040039065340935</v>
+        <v>1.050958030127367</v>
       </c>
       <c r="J25">
-        <v>1.051647739500347</v>
+        <v>1.03095167060266</v>
       </c>
       <c r="K25">
-        <v>1.053869403180086</v>
+        <v>1.039365538738419</v>
       </c>
       <c r="L25">
-        <v>1.061938131378479</v>
+        <v>1.03725566503997</v>
       </c>
       <c r="M25">
-        <v>1.06753103580453</v>
+        <v>1.04382812904099</v>
       </c>
       <c r="N25">
-        <v>1.053141199916119</v>
+        <v>1.032415740226726</v>
       </c>
     </row>
   </sheetData>
